--- a/outcome/appendix/data/0_impact/Dysentery.xlsx
+++ b/outcome/appendix/data/0_impact/Dysentery.xlsx
@@ -955,19 +955,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>5670.60267690967</v>
+        <v>5670.60267690968</v>
       </c>
       <c r="C23" t="n">
-        <v>4589.32408582524</v>
+        <v>4589.32408582525</v>
       </c>
       <c r="D23" t="n">
         <v>4103.08140611428</v>
       </c>
       <c r="E23" t="n">
-        <v>7006.63847617397</v>
+        <v>7006.63847617399</v>
       </c>
       <c r="F23" t="n">
-        <v>7836.97215255287</v>
+        <v>7836.97215255289</v>
       </c>
       <c r="G23" t="s">
         <v>8</v>
@@ -981,7 +981,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>3845.13875531093</v>
+        <v>3845.13875531094</v>
       </c>
       <c r="C24" t="n">
         <v>3097.90629191514</v>
@@ -990,10 +990,10 @@
         <v>2763.06054734376</v>
       </c>
       <c r="E24" t="n">
-        <v>4772.60790172382</v>
+        <v>4772.60790172383</v>
       </c>
       <c r="F24" t="n">
-        <v>5350.98373497737</v>
+        <v>5350.98373497738</v>
       </c>
       <c r="G24" t="s">
         <v>8</v>
@@ -1007,19 +1007,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>3190.0283008443</v>
+        <v>3190.02830084431</v>
       </c>
       <c r="C25" t="n">
-        <v>2558.769655227</v>
+        <v>2558.76965522701</v>
       </c>
       <c r="D25" t="n">
         <v>2276.86425710839</v>
       </c>
       <c r="E25" t="n">
-        <v>3977.0209637275</v>
+        <v>3977.02096372751</v>
       </c>
       <c r="F25" t="n">
-        <v>4469.42786704001</v>
+        <v>4469.42786704002</v>
       </c>
       <c r="G25" t="s">
         <v>8</v>
@@ -1328,10 +1328,10 @@
         <v>1905.87581312768</v>
       </c>
       <c r="E37" t="n">
-        <v>3748.39816493617</v>
+        <v>3748.39816493618</v>
       </c>
       <c r="F37" t="n">
-        <v>4318.41615628192</v>
+        <v>4318.41615628193</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -1348,13 +1348,13 @@
         <v>2453.16763896843</v>
       </c>
       <c r="C38" t="n">
-        <v>1870.98490605384</v>
+        <v>1870.98490605385</v>
       </c>
       <c r="D38" t="n">
-        <v>1621.01286081602</v>
+        <v>1621.01286081603</v>
       </c>
       <c r="E38" t="n">
-        <v>3216.50455084363</v>
+        <v>3216.50455084364</v>
       </c>
       <c r="F38" t="n">
         <v>3712.5130900272</v>
@@ -1374,16 +1374,16 @@
         <v>2363.88844855049</v>
       </c>
       <c r="C39" t="n">
-        <v>1796.68264506884</v>
+        <v>1796.68264506885</v>
       </c>
       <c r="D39" t="n">
         <v>1553.79673801143</v>
       </c>
       <c r="E39" t="n">
-        <v>3110.15894349907</v>
+        <v>3110.15894349909</v>
       </c>
       <c r="F39" t="n">
-        <v>3596.33178554745</v>
+        <v>3596.33178554746</v>
       </c>
       <c r="G39" t="s">
         <v>8</v>
